--- a/task1_parse_text/output.xlsx
+++ b/task1_parse_text/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1233">
   <si>
     <t>id</t>
   </si>
@@ -2800,6 +2800,9 @@
     <t>NPHN-6668</t>
   </si>
   <si>
+    <t>NPHN-389,</t>
+  </si>
+  <si>
     <t>NPHN-167</t>
   </si>
   <si>
@@ -2818,21 +2821,24 @@
     <t>NPHN-2255</t>
   </si>
   <si>
+    <t>NPHN-226,</t>
+  </si>
+  <si>
+    <t>NPHN-682</t>
+  </si>
+  <si>
+    <t>NPHN-268</t>
+  </si>
+  <si>
+    <t>NPHN-21</t>
+  </si>
+  <si>
+    <t>NPHN-22</t>
+  </si>
+  <si>
     <t>NPHN-226</t>
   </si>
   <si>
-    <t>NPHN-682</t>
-  </si>
-  <si>
-    <t>NPHN-268</t>
-  </si>
-  <si>
-    <t>NPHN-21</t>
-  </si>
-  <si>
-    <t>NPHN-22</t>
-  </si>
-  <si>
     <t>NPHN-2021</t>
   </si>
   <si>
@@ -2881,6 +2887,9 @@
     <t>NPHN-3369</t>
   </si>
   <si>
+    <t>NPHN-565,</t>
+  </si>
+  <si>
     <t>NPHN-838</t>
   </si>
   <si>
@@ -2893,34 +2902,43 @@
     <t>NPHN-1616</t>
   </si>
   <si>
+    <t>NPHN-698,</t>
+  </si>
+  <si>
+    <t>NPHN-3456</t>
+  </si>
+  <si>
+    <t>NPHN-6996</t>
+  </si>
+  <si>
+    <t>NPHN-3388</t>
+  </si>
+  <si>
+    <t>NPHN-988</t>
+  </si>
+  <si>
+    <t>NPHN-256</t>
+  </si>
+  <si>
+    <t>NPHN-98</t>
+  </si>
+  <si>
+    <t>NPHN-38</t>
+  </si>
+  <si>
+    <t>NPHN-968</t>
+  </si>
+  <si>
     <t>NPHN-698</t>
   </si>
   <si>
-    <t>NPHN-3456</t>
-  </si>
-  <si>
-    <t>NPHN-6996</t>
-  </si>
-  <si>
-    <t>NPHN-3388</t>
-  </si>
-  <si>
-    <t>NPHN-988</t>
-  </si>
-  <si>
-    <t>NPHN-256</t>
-  </si>
-  <si>
-    <t>NPHN-98</t>
-  </si>
-  <si>
-    <t>NPHN-38</t>
-  </si>
-  <si>
-    <t>NPHN-968</t>
-  </si>
-  <si>
     <t>NPHN-2628</t>
+  </si>
+  <si>
+    <t>NPHN-2828,</t>
+  </si>
+  <si>
+    <t>NPHN-102,</t>
   </si>
   <si>
     <t>NPHN-199</t>
@@ -4152,25 +4170,25 @@
         <v>924</v>
       </c>
       <c r="M2" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="N2" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O2" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="P2" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q2" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R2" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S2" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4211,25 +4229,25 @@
         <v>925</v>
       </c>
       <c r="M3" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="N3" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O3" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="P3" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q3" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R3" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S3" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4270,25 +4288,25 @@
         <v>925</v>
       </c>
       <c r="M4" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="N4" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O4" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="P4" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q4" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="R4" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S4" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4329,25 +4347,25 @@
         <v>926</v>
       </c>
       <c r="M5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N5" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O5" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P5" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q5" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R5" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S5" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4388,25 +4406,25 @@
         <v>926</v>
       </c>
       <c r="M6" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N6" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O6" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P6" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q6" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R6" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S6" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4447,25 +4465,25 @@
         <v>926</v>
       </c>
       <c r="M7" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N7" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O7" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P7" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q7" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R7" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S7" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4506,25 +4524,25 @@
         <v>926</v>
       </c>
       <c r="M8" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N8" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O8" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P8" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q8" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R8" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S8" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4565,25 +4583,25 @@
         <v>926</v>
       </c>
       <c r="M9" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N9" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O9" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P9" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q9" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="R9" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S9" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4624,25 +4642,25 @@
         <v>926</v>
       </c>
       <c r="M10" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N10" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O10" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P10" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q10" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="R10" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S10" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4677,22 +4695,22 @@
         <v>926</v>
       </c>
       <c r="M11" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N11" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O11" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P11" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="R11" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S11" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4733,25 +4751,25 @@
         <v>926</v>
       </c>
       <c r="M12" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N12" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O12" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P12" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q12" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="R12" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S12" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4792,25 +4810,25 @@
         <v>926</v>
       </c>
       <c r="M13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N13" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O13" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P13" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q13" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="R13" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S13" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4851,25 +4869,25 @@
         <v>926</v>
       </c>
       <c r="M14" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N14" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O14" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P14" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q14" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="R14" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S14" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4910,25 +4928,25 @@
         <v>926</v>
       </c>
       <c r="M15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N15" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O15" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P15" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q15" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R15" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S15" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4969,25 +4987,25 @@
         <v>926</v>
       </c>
       <c r="M16" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N16" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O16" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P16" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="Q16" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R16" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S16" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -5028,25 +5046,25 @@
         <v>927</v>
       </c>
       <c r="M17" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="N17" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="O17" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="P17" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q17" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="R17" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S17" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -5087,25 +5105,25 @@
         <v>925</v>
       </c>
       <c r="M18" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="N18" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O18" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="P18" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q18" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="R18" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S18" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5137,25 +5155,25 @@
         <v>773</v>
       </c>
       <c r="L19" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="M19" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="N19" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O19" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="P19" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="Q19" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="S19" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5193,28 +5211,28 @@
         <v>774</v>
       </c>
       <c r="L20" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M20" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="N20" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O20" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="P20" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q20" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="R20" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S20" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -5252,28 +5270,28 @@
         <v>775</v>
       </c>
       <c r="L21" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M21" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="N21" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O21" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="P21" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q21" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="R21" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S21" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5311,28 +5329,28 @@
         <v>776</v>
       </c>
       <c r="L22" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M22" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="N22" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O22" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="P22" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q22" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="R22" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S22" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5370,28 +5388,28 @@
         <v>777</v>
       </c>
       <c r="L23" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M23" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="N23" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="O23" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="P23" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="Q23" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R23" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S23" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5429,28 +5447,28 @@
         <v>778</v>
       </c>
       <c r="L24" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M24" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="N24" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O24" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="P24" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q24" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R24" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S24" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5488,28 +5506,28 @@
         <v>779</v>
       </c>
       <c r="L25" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M25" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="N25" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O25" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="P25" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q25" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R25" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S25" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5547,28 +5565,28 @@
         <v>780</v>
       </c>
       <c r="L26" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M26" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="N26" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O26" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="P26" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q26" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R26" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S26" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5606,28 +5624,28 @@
         <v>781</v>
       </c>
       <c r="L27" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M27" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="N27" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O27" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="P27" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q27" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="R27" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S27" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5665,28 +5683,28 @@
         <v>782</v>
       </c>
       <c r="L28" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M28" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="N28" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O28" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="P28" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q28" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R28" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S28" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5724,28 +5742,28 @@
         <v>783</v>
       </c>
       <c r="L29" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M29" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="N29" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O29" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="P29" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q29" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R29" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S29" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5780,28 +5798,28 @@
         <v>784</v>
       </c>
       <c r="L30" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M30" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="N30" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O30" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="P30" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q30" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="R30" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S30" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5839,28 +5857,28 @@
         <v>781</v>
       </c>
       <c r="L31" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M31" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="N31" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O31" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="P31" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="Q31" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R31" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S31" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5898,28 +5916,28 @@
         <v>785</v>
       </c>
       <c r="L32" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M32" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="N32" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O32" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="P32" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q32" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="R32" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S32" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5957,22 +5975,22 @@
         <v>786</v>
       </c>
       <c r="L33" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M33" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="N33" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O33" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="P33" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="S33" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -6010,28 +6028,28 @@
         <v>787</v>
       </c>
       <c r="L34" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M34" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="N34" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O34" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="P34" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q34" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R34" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S34" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -6069,28 +6087,28 @@
         <v>788</v>
       </c>
       <c r="L35" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M35" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="N35" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O35" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="P35" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q35" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="R35" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S35" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -6128,28 +6146,28 @@
         <v>789</v>
       </c>
       <c r="L36" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M36" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="N36" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O36" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="P36" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q36" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="R36" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S36" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -6187,28 +6205,28 @@
         <v>788</v>
       </c>
       <c r="L37" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M37" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="N37" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O37" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="P37" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q37" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="R37" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S37" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -6246,28 +6264,28 @@
         <v>790</v>
       </c>
       <c r="L38" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M38" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="N38" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O38" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="P38" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q38" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R38" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S38" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6305,28 +6323,28 @@
         <v>791</v>
       </c>
       <c r="L39" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M39" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="N39" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="O39" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="P39" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q39" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R39" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S39" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6364,28 +6382,28 @@
         <v>792</v>
       </c>
       <c r="L40" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M40" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="N40" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O40" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="P40" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q40" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="R40" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S40" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6423,28 +6441,28 @@
         <v>793</v>
       </c>
       <c r="L41" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M41" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="N41" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O41" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="P41" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q41" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="R41" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S41" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6482,28 +6500,28 @@
         <v>794</v>
       </c>
       <c r="L42" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M42" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="N42" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O42" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="P42" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q42" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="R42" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S42" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6541,28 +6559,28 @@
         <v>795</v>
       </c>
       <c r="L43" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M43" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="N43" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O43" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="P43" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q43" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="R43" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S43" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6600,28 +6618,28 @@
         <v>796</v>
       </c>
       <c r="L44" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="M44" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="N44" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O44" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="P44" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q44" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="R44" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S44" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6662,25 +6680,25 @@
         <v>926</v>
       </c>
       <c r="M45" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N45" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O45" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="P45" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q45" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="R45" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S45" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6718,28 +6736,28 @@
         <v>798</v>
       </c>
       <c r="L46" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M46" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="N46" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O46" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="P46" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q46" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R46" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S46" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6777,28 +6795,28 @@
         <v>799</v>
       </c>
       <c r="L47" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="M47" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="N47" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O47" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="P47" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q47" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="R47" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S47" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6836,28 +6854,28 @@
         <v>800</v>
       </c>
       <c r="L48" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="M48" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="N48" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O48" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="P48" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q48" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R48" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S48" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6895,28 +6913,28 @@
         <v>801</v>
       </c>
       <c r="L49" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="M49" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="N49" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O49" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="P49" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q49" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="R49" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S49" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6954,28 +6972,28 @@
         <v>802</v>
       </c>
       <c r="L50" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="M50" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="N50" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O50" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="P50" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q50" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R50" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S50" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -7013,28 +7031,28 @@
         <v>803</v>
       </c>
       <c r="L51" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="M51" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="N51" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O51" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="P51" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q51" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R51" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S51" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -7072,28 +7090,28 @@
         <v>804</v>
       </c>
       <c r="L52" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="M52" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="N52" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O52" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="P52" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q52" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R52" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S52" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -7131,28 +7149,28 @@
         <v>805</v>
       </c>
       <c r="L53" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="M53" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="N53" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O53" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="P53" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q53" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R53" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S53" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -7190,28 +7208,28 @@
         <v>806</v>
       </c>
       <c r="L54" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="M54" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="N54" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O54" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="P54" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q54" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R54" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S54" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -7252,25 +7270,25 @@
         <v>925</v>
       </c>
       <c r="M55" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="N55" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O55" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="P55" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q55" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="R55" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S55" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7308,28 +7326,28 @@
         <v>808</v>
       </c>
       <c r="L56" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="M56" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="N56" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O56" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="P56" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q56" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="R56" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S56" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7367,28 +7385,28 @@
         <v>781</v>
       </c>
       <c r="L57" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M57" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="N57" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="O57" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="P57" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q57" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R57" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S57" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7426,28 +7444,28 @@
         <v>775</v>
       </c>
       <c r="L58" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="M58" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="N58" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O58" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="P58" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q58" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R58" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S58" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -7485,28 +7503,28 @@
         <v>809</v>
       </c>
       <c r="L59" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M59" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N59" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O59" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P59" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q59" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R59" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S59" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -7544,28 +7562,28 @@
         <v>810</v>
       </c>
       <c r="L60" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M60" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="N60" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O60" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="P60" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q60" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R60" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S60" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7603,28 +7621,28 @@
         <v>811</v>
       </c>
       <c r="L61" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M61" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="N61" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O61" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="P61" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q61" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R61" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S61" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7665,25 +7683,25 @@
         <v>925</v>
       </c>
       <c r="M62" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="N62" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O62" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="P62" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q62" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R62" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S62" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7721,28 +7739,28 @@
         <v>813</v>
       </c>
       <c r="L63" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="M63" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="N63" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O63" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="P63" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q63" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R63" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S63" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7780,28 +7798,28 @@
         <v>814</v>
       </c>
       <c r="L64" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="M64" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="N64" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O64" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="P64" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q64" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R64" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S64" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7833,28 +7851,28 @@
         <v>815</v>
       </c>
       <c r="L65" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="M65" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="N65" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O65" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="P65" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q65" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="R65" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S65" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7892,28 +7910,28 @@
         <v>816</v>
       </c>
       <c r="L66" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="M66" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="N66" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O66" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="P66" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q66" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R66" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S66" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7951,28 +7969,28 @@
         <v>817</v>
       </c>
       <c r="L67" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="M67" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="N67" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O67" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="P67" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q67" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="R67" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S67" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -8007,28 +8025,28 @@
         <v>818</v>
       </c>
       <c r="L68" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M68" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="N68" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O68" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="P68" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q68" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R68" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S68" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -8066,28 +8084,28 @@
         <v>819</v>
       </c>
       <c r="L69" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M69" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="N69" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O69" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="P69" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q69" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="R69" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S69" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -8125,28 +8143,28 @@
         <v>820</v>
       </c>
       <c r="L70" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M70" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N70" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O70" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P70" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q70" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R70" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S70" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -8184,28 +8202,28 @@
         <v>821</v>
       </c>
       <c r="L71" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M71" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N71" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O71" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P71" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q71" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R71" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S71" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -8243,28 +8261,28 @@
         <v>782</v>
       </c>
       <c r="L72" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M72" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N72" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O72" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P72" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="Q72" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R72" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S72" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -8302,28 +8320,28 @@
         <v>822</v>
       </c>
       <c r="L73" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M73" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N73" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O73" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P73" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q73" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R73" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S73" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -8361,28 +8379,28 @@
         <v>823</v>
       </c>
       <c r="L74" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="M74" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="N74" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O74" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="P74" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q74" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R74" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S74" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -8420,28 +8438,28 @@
         <v>824</v>
       </c>
       <c r="L75" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="M75" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="N75" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O75" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="P75" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q75" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R75" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S75" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -8479,28 +8497,28 @@
         <v>825</v>
       </c>
       <c r="L76" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="M76" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="N76" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O76" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="P76" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q76" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R76" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S76" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -8532,28 +8550,28 @@
         <v>826</v>
       </c>
       <c r="L77" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M77" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="N77" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O77" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="P77" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q77" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R77" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S77" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -8591,28 +8609,28 @@
         <v>827</v>
       </c>
       <c r="L78" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M78" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="N78" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O78" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="P78" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q78" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="R78" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S78" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -8650,28 +8668,28 @@
         <v>828</v>
       </c>
       <c r="L79" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M79" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="N79" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O79" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="P79" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q79" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R79" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S79" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -8709,28 +8727,28 @@
         <v>829</v>
       </c>
       <c r="L80" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M80" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N80" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O80" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P80" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="Q80" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R80" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S80" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -8768,28 +8786,28 @@
         <v>830</v>
       </c>
       <c r="L81" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="M81" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="N81" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O81" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="P81" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q81" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R81" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S81" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -8827,28 +8845,28 @@
         <v>793</v>
       </c>
       <c r="L82" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M82" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="N82" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O82" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="P82" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q82" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R82" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S82" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -8886,28 +8904,28 @@
         <v>788</v>
       </c>
       <c r="L83" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M83" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N83" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O83" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P83" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q83" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R83" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S83" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -8948,25 +8966,25 @@
         <v>927</v>
       </c>
       <c r="M84" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="N84" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O84" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="P84" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q84" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R84" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S84" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -9001,28 +9019,28 @@
         <v>831</v>
       </c>
       <c r="L85" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M85" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="N85" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O85" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="P85" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q85" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="R85" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S85" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -9060,28 +9078,28 @@
         <v>832</v>
       </c>
       <c r="L86" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M86" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="N86" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O86" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="P86" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q86" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="R86" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S86" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -9119,28 +9137,28 @@
         <v>833</v>
       </c>
       <c r="L87" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M87" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="N87" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O87" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="P87" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q87" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="R87" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S87" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -9178,28 +9196,28 @@
         <v>834</v>
       </c>
       <c r="L88" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M88" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N88" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O88" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P88" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q88" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R88" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S88" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -9237,28 +9255,28 @@
         <v>835</v>
       </c>
       <c r="L89" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M89" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N89" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O89" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P89" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q89" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R89" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S89" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -9290,25 +9308,25 @@
         <v>836</v>
       </c>
       <c r="L90" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="M90" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N90" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O90" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P90" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q90" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="S90" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -9346,28 +9364,28 @@
         <v>837</v>
       </c>
       <c r="L91" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="M91" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="N91" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O91" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="P91" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q91" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R91" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S91" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -9405,28 +9423,28 @@
         <v>820</v>
       </c>
       <c r="L92" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M92" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N92" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O92" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P92" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q92" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R92" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S92" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -9461,28 +9479,28 @@
         <v>823</v>
       </c>
       <c r="L93" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M93" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N93" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O93" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P93" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q93" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R93" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S93" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -9520,28 +9538,28 @@
         <v>788</v>
       </c>
       <c r="L94" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M94" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N94" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O94" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P94" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q94" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R94" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S94" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -9579,28 +9597,28 @@
         <v>838</v>
       </c>
       <c r="L95" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M95" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="N95" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O95" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P95" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q95" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="R95" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S95" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -9638,28 +9656,28 @@
         <v>817</v>
       </c>
       <c r="L96" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M96" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N96" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O96" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P96" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q96" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="R96" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S96" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -9697,28 +9715,28 @@
         <v>839</v>
       </c>
       <c r="L97" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M97" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N97" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O97" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P97" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q97" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R97" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S97" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -9750,28 +9768,28 @@
         <v>788</v>
       </c>
       <c r="L98" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="M98" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="N98" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O98" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="P98" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q98" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="R98" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S98" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -9809,22 +9827,22 @@
         <v>840</v>
       </c>
       <c r="L99" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="M99" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="N99" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O99" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="R99" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S99" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -9862,28 +9880,28 @@
         <v>841</v>
       </c>
       <c r="L100" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M100" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N100" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O100" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P100" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q100" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="R100" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S100" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -9924,19 +9942,19 @@
         <v>927</v>
       </c>
       <c r="M101" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="N101" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O101" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="R101" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S101" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -9974,28 +9992,28 @@
         <v>843</v>
       </c>
       <c r="L102" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="M102" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="N102" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O102" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="P102" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q102" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="R102" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S102" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -10033,19 +10051,19 @@
         <v>773</v>
       </c>
       <c r="L103" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="M103" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="N103" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O103" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="S103" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -10077,22 +10095,22 @@
         <v>844</v>
       </c>
       <c r="L104" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="M104" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="N104" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O104" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="P104" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="S104" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -10130,28 +10148,28 @@
         <v>845</v>
       </c>
       <c r="L105" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M105" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N105" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O105" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P105" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q105" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="R105" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S105" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -10189,28 +10207,28 @@
         <v>846</v>
       </c>
       <c r="L106" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M106" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N106" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O106" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P106" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q106" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R106" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S106" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -10245,28 +10263,28 @@
         <v>847</v>
       </c>
       <c r="L107" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M107" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="N107" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O107" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="P107" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q107" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="R107" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S107" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -10304,28 +10322,28 @@
         <v>848</v>
       </c>
       <c r="L108" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="M108" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="N108" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O108" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="P108" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q108" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="R108" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S108" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -10360,28 +10378,28 @@
         <v>849</v>
       </c>
       <c r="L109" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M109" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N109" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O109" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P109" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q109" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="R109" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S109" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -10419,28 +10437,28 @@
         <v>850</v>
       </c>
       <c r="L110" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M110" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="N110" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O110" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="P110" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q110" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R110" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S110" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -10478,28 +10496,28 @@
         <v>851</v>
       </c>
       <c r="L111" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="M111" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="N111" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O111" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="P111" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q111" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R111" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S111" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -10540,25 +10558,25 @@
         <v>927</v>
       </c>
       <c r="M112" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="N112" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O112" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="P112" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q112" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R112" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S112" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -10596,28 +10614,28 @@
         <v>775</v>
       </c>
       <c r="L113" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="M113" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="N113" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O113" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="P113" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q113" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R113" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S113" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -10652,28 +10670,28 @@
         <v>853</v>
       </c>
       <c r="L114" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="M114" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="N114" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O114" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="P114" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q114" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="R114" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S114" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -10711,28 +10729,28 @@
         <v>854</v>
       </c>
       <c r="L115" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M115" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="N115" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O115" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="P115" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q115" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="R115" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S115" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -10770,28 +10788,28 @@
         <v>855</v>
       </c>
       <c r="L116" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M116" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="N116" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O116" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="P116" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q116" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="R116" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S116" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -10832,25 +10850,25 @@
         <v>927</v>
       </c>
       <c r="M117" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="N117" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O117" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="P117" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q117" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="R117" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S117" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -10888,28 +10906,28 @@
         <v>857</v>
       </c>
       <c r="L118" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="M118" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="N118" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O118" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="P118" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q118" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R118" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S118" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -10947,28 +10965,28 @@
         <v>858</v>
       </c>
       <c r="L119" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M119" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N119" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O119" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P119" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q119" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R119" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S119" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -11006,28 +11024,28 @@
         <v>859</v>
       </c>
       <c r="L120" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="M120" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="N120" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O120" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="P120" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q120" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R120" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S120" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -11065,28 +11083,28 @@
         <v>860</v>
       </c>
       <c r="L121" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="M121" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="N121" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O121" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="P121" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q121" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="R121" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S121" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -11124,28 +11142,28 @@
         <v>759</v>
       </c>
       <c r="L122" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="M122" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="N122" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O122" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="P122" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q122" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="R122" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S122" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -11183,28 +11201,28 @@
         <v>861</v>
       </c>
       <c r="L123" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="M123" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="N123" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O123" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="P123" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q123" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="R123" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S123" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -11242,28 +11260,28 @@
         <v>862</v>
       </c>
       <c r="L124" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M124" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="N124" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O124" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="P124" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="Q124" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R124" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S124" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -11298,28 +11316,28 @@
         <v>856</v>
       </c>
       <c r="L125" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M125" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="N125" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O125" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="P125" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q125" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R125" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S125" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -11357,28 +11375,28 @@
         <v>863</v>
       </c>
       <c r="L126" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="M126" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="N126" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O126" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="P126" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q126" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R126" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S126" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -11413,28 +11431,28 @@
         <v>853</v>
       </c>
       <c r="L127" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M127" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="N127" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O127" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="P127" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q127" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="R127" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S127" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -11472,28 +11490,28 @@
         <v>864</v>
       </c>
       <c r="L128" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="M128" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="N128" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O128" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="P128" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q128" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="R128" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S128" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -11531,28 +11549,28 @@
         <v>781</v>
       </c>
       <c r="L129" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="M129" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="N129" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="O129" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="P129" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q129" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R129" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S129" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -11590,28 +11608,28 @@
         <v>865</v>
       </c>
       <c r="L130" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="M130" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="N130" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="O130" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="P130" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q130" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="R130" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S130" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -11649,28 +11667,28 @@
         <v>866</v>
       </c>
       <c r="L131" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M131" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="N131" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O131" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="P131" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q131" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="R131" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S131" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -11708,28 +11726,28 @@
         <v>867</v>
       </c>
       <c r="L132" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="M132" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="N132" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O132" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="P132" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q132" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R132" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S132" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -11767,28 +11785,28 @@
         <v>765</v>
       </c>
       <c r="L133" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M133" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="N133" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O133" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="P133" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="Q133" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="R133" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S133" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -11826,28 +11844,28 @@
         <v>868</v>
       </c>
       <c r="L134" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="M134" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="N134" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O134" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="P134" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q134" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R134" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S134" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -11885,28 +11903,28 @@
         <v>869</v>
       </c>
       <c r="L135" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M135" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N135" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O135" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P135" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q135" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R135" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S135" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -11944,28 +11962,28 @@
         <v>870</v>
       </c>
       <c r="L136" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M136" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="N136" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O136" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="P136" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q136" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="R136" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S136" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -12003,28 +12021,28 @@
         <v>818</v>
       </c>
       <c r="L137" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M137" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="N137" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O137" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="P137" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q137" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="R137" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S137" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -12062,28 +12080,28 @@
         <v>871</v>
       </c>
       <c r="L138" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="M138" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="N138" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O138" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="P138" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q138" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R138" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S138" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -12121,28 +12139,28 @@
         <v>872</v>
       </c>
       <c r="L139" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="M139" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="N139" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O139" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="P139" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q139" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R139" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S139" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -12180,28 +12198,28 @@
         <v>873</v>
       </c>
       <c r="L140" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M140" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="N140" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O140" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="P140" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q140" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="R140" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S140" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -12239,28 +12257,28 @@
         <v>874</v>
       </c>
       <c r="L141" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="M141" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="N141" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O141" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="P141" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q141" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R141" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S141" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -12301,25 +12319,25 @@
         <v>927</v>
       </c>
       <c r="M142" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="N142" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O142" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="P142" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q142" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="R142" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S142" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -12357,28 +12375,28 @@
         <v>848</v>
       </c>
       <c r="L143" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="M143" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="N143" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O143" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="P143" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q143" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="R143" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S143" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -12416,28 +12434,28 @@
         <v>876</v>
       </c>
       <c r="L144" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="M144" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="N144" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O144" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="P144" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q144" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="R144" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S144" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -12475,28 +12493,28 @@
         <v>877</v>
       </c>
       <c r="L145" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M145" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N145" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O145" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P145" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q145" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="R145" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S145" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -12534,28 +12552,28 @@
         <v>786</v>
       </c>
       <c r="L146" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M146" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="N146" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O146" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="P146" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q146" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="R146" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="S146" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -12590,28 +12608,28 @@
         <v>878</v>
       </c>
       <c r="L147" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M147" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="N147" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O147" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="P147" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q147" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="R147" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S147" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -12646,28 +12664,28 @@
         <v>808</v>
       </c>
       <c r="L148" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M148" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N148" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O148" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P148" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q148" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R148" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S148" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -12702,28 +12720,28 @@
         <v>879</v>
       </c>
       <c r="L149" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="M149" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="N149" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O149" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="P149" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q149" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R149" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S149" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -12761,28 +12779,28 @@
         <v>880</v>
       </c>
       <c r="L150" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M150" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="N150" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O150" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="P150" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q150" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="R150" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S150" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -12820,28 +12838,28 @@
         <v>881</v>
       </c>
       <c r="L151" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M151" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N151" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O151" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P151" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q151" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R151" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S151" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -12879,28 +12897,28 @@
         <v>882</v>
       </c>
       <c r="L152" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M152" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N152" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O152" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P152" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="Q152" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R152" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S152" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -12938,28 +12956,28 @@
         <v>883</v>
       </c>
       <c r="L153" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M153" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="N153" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O153" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="P153" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q153" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="R153" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S153" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -12997,28 +13015,28 @@
         <v>884</v>
       </c>
       <c r="L154" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="M154" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="N154" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O154" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="P154" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q154" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="R154" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S154" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -13059,25 +13077,25 @@
         <v>924</v>
       </c>
       <c r="M155" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="N155" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O155" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="P155" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q155" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R155" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S155" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -13115,28 +13133,28 @@
         <v>886</v>
       </c>
       <c r="L156" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M156" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="N156" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O156" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="P156" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="Q156" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="R156" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="S156" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -13174,28 +13192,28 @@
         <v>783</v>
       </c>
       <c r="L157" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M157" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="N157" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="O157" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="P157" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q157" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="R157" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S157" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -13233,28 +13251,28 @@
         <v>887</v>
       </c>
       <c r="L158" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M158" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N158" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O158" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P158" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q158" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R158" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S158" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -13292,28 +13310,28 @@
         <v>888</v>
       </c>
       <c r="L159" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M159" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="N159" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O159" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="P159" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q159" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R159" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S159" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -13351,28 +13369,28 @@
         <v>889</v>
       </c>
       <c r="L160" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M160" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="N160" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O160" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="P160" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q160" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="R160" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S160" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -13410,28 +13428,28 @@
         <v>877</v>
       </c>
       <c r="L161" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M161" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N161" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O161" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P161" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q161" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="R161" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S161" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -13463,25 +13481,25 @@
         <v>890</v>
       </c>
       <c r="L162" t="s">
-        <v>942</v>
+        <v>973</v>
       </c>
       <c r="M162" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="N162" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O162" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="P162" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q162" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="S162" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -13519,28 +13537,28 @@
         <v>891</v>
       </c>
       <c r="L163" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="M163" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="N163" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="O163" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="P163" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q163" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R163" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S163" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -13575,25 +13593,25 @@
         <v>892</v>
       </c>
       <c r="L164" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="M164" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="N164" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O164" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="P164" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q164" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="S164" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -13631,28 +13649,28 @@
         <v>893</v>
       </c>
       <c r="L165" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="M165" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="N165" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O165" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="P165" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q165" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R165" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S165" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -13690,28 +13708,28 @@
         <v>894</v>
       </c>
       <c r="L166" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="M166" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="N166" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O166" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="P166" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q166" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R166" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S166" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -13749,28 +13767,28 @@
         <v>842</v>
       </c>
       <c r="L167" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="M167" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="N167" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="O167" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="P167" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q167" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R167" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S167" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -13808,28 +13826,28 @@
         <v>895</v>
       </c>
       <c r="L168" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="M168" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="N168" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O168" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="P168" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q168" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R168" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S168" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -13867,28 +13885,28 @@
         <v>896</v>
       </c>
       <c r="L169" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="M169" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="N169" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O169" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="P169" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q169" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="R169" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S169" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -13926,28 +13944,28 @@
         <v>885</v>
       </c>
       <c r="L170" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="M170" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="N170" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O170" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="P170" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q170" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R170" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S170" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -13985,28 +14003,28 @@
         <v>897</v>
       </c>
       <c r="L171" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="M171" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="N171" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O171" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="P171" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q171" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R171" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S171" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -14044,28 +14062,28 @@
         <v>898</v>
       </c>
       <c r="L172" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M172" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="N172" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O172" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="P172" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="Q172" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R172" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S172" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -14103,28 +14121,28 @@
         <v>767</v>
       </c>
       <c r="L173" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="M173" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="N173" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O173" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="P173" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q173" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="R173" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S173" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -14162,28 +14180,28 @@
         <v>899</v>
       </c>
       <c r="L174" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="M174" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="N174" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O174" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="P174" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q174" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="R174" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S174" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -14221,28 +14239,28 @@
         <v>900</v>
       </c>
       <c r="L175" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="M175" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="N175" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O175" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="P175" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q175" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R175" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S175" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -14280,28 +14298,28 @@
         <v>901</v>
       </c>
       <c r="L176" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M176" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N176" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O176" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P176" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q176" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="R176" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S176" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -14333,28 +14351,28 @@
         <v>902</v>
       </c>
       <c r="L177" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M177" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N177" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O177" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P177" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q177" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R177" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S177" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -14392,28 +14410,28 @@
         <v>903</v>
       </c>
       <c r="L178" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="M178" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="N178" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O178" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="P178" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q178" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R178" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S178" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -14451,28 +14469,28 @@
         <v>863</v>
       </c>
       <c r="L179" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="M179" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="N179" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O179" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="P179" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q179" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R179" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S179" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -14504,28 +14522,28 @@
         <v>904</v>
       </c>
       <c r="L180" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M180" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N180" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O180" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P180" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q180" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="R180" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="S180" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -14563,28 +14581,28 @@
         <v>905</v>
       </c>
       <c r="L181" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M181" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N181" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O181" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P181" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q181" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R181" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="S181" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -14622,28 +14640,28 @@
         <v>906</v>
       </c>
       <c r="L182" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M182" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N182" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O182" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P182" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q182" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R182" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S182" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -14681,28 +14699,28 @@
         <v>905</v>
       </c>
       <c r="L183" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="M183" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="N183" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O183" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="P183" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q183" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="R183" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S183" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -14740,28 +14758,28 @@
         <v>907</v>
       </c>
       <c r="L184" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="M184" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="N184" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O184" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="P184" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q184" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="R184" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S184" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -14799,28 +14817,28 @@
         <v>908</v>
       </c>
       <c r="L185" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M185" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N185" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O185" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P185" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q185" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R185" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S185" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -14858,28 +14876,28 @@
         <v>909</v>
       </c>
       <c r="L186" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M186" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N186" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O186" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P186" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="Q186" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R186" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S186" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -14917,28 +14935,28 @@
         <v>767</v>
       </c>
       <c r="L187" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M187" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="N187" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O187" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="P187" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q187" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="R187" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S187" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -14976,28 +14994,28 @@
         <v>910</v>
       </c>
       <c r="L188" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M188" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N188" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O188" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P188" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q188" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R188" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S188" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -15035,28 +15053,28 @@
         <v>911</v>
       </c>
       <c r="L189" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M189" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N189" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O189" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P189" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q189" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="R189" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="S189" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -15094,28 +15112,28 @@
         <v>912</v>
       </c>
       <c r="L190" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M190" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N190" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O190" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P190" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q190" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R190" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S190" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="191" spans="1:19">
@@ -15147,28 +15165,28 @@
         <v>913</v>
       </c>
       <c r="L191" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M191" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N191" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O191" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P191" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q191" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R191" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S191" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -15206,28 +15224,28 @@
         <v>863</v>
       </c>
       <c r="L192" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M192" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="N192" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O192" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="P192" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q192" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R192" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S192" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="193" spans="1:19">
@@ -15262,28 +15280,28 @@
         <v>914</v>
       </c>
       <c r="L193" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M193" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="N193" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O193" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="P193" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q193" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="R193" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S193" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -15321,28 +15339,28 @@
         <v>797</v>
       </c>
       <c r="L194" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="M194" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="N194" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O194" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="P194" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q194" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R194" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S194" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -15380,28 +15398,28 @@
         <v>870</v>
       </c>
       <c r="L195" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="M195" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="N195" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O195" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="P195" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q195" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="R195" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S195" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -15439,28 +15457,28 @@
         <v>915</v>
       </c>
       <c r="L196" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="M196" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="N196" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O196" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="P196" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q196" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R196" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S196" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -15498,28 +15516,28 @@
         <v>916</v>
       </c>
       <c r="L197" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="M197" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="N197" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O197" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="P197" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q197" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="R197" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="S197" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -15557,28 +15575,28 @@
         <v>917</v>
       </c>
       <c r="L198" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="M198" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="N198" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="O198" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="P198" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q198" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="R198" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="S198" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -15616,28 +15634,28 @@
         <v>918</v>
       </c>
       <c r="L199" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M199" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="N199" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="O199" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="P199" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="Q199" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="R199" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="S199" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -15675,28 +15693,28 @@
         <v>919</v>
       </c>
       <c r="L200" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="M200" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="N200" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O200" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="P200" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q200" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="R200" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="S200" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -15734,28 +15752,28 @@
         <v>920</v>
       </c>
       <c r="L201" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M201" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="N201" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O201" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="P201" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q201" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="R201" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S201" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -15787,28 +15805,28 @@
         <v>921</v>
       </c>
       <c r="L202" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M202" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="N202" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O202" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="P202" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q202" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R202" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="S202" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -15846,28 +15864,28 @@
         <v>922</v>
       </c>
       <c r="L203" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="M203" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="N203" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O203" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="P203" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q203" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="R203" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="S203" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -15905,28 +15923,28 @@
         <v>837</v>
       </c>
       <c r="L204" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="M204" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="N204" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="O204" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="P204" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q204" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="R204" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="S204" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -15964,28 +15982,28 @@
         <v>923</v>
       </c>
       <c r="L205" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="M205" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="N205" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="O205" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="P205" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="Q205" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="R205" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="S205" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
